--- a/RentaCarroFinal/bin/Debug/net6.0-windows/Result.xlsx
+++ b/RentaCarroFinal/bin/Debug/net6.0-windows/Result.xlsx
@@ -12,7 +12,83 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+  <si>
+    <t xml:space="preserve">Id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EmpleadoId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empleado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ClienteId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cliente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VehiculoId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vehiculo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FechaRenta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FechaDevolucion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MontoDia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Devuelto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Joan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rojo carro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5/6/2022 2:42:53 p. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22/6/2022 2:42:53 p. m.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">False</t>
+  </si>
+  <si>
+    <t xml:space="preserve">True</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -61,7 +137,88 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1"/>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
